--- a/public/data/repairs.xlsx
+++ b/public/data/repairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riqi\Tes Teknis\monitoring-system-vehicle-repair-shop\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89433F81-2EF2-4D2E-B69A-04A7F1D0F6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC1E822-4C56-420C-A306-CE039067B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEEA51DB-15CE-48DF-9E64-8480900D52EF}"/>
   </bookViews>
@@ -702,13 +702,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059574B7-EB74-47BE-B9BC-4C2791C3AC99}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
@@ -2295,7 +2294,7 @@
         <v>44938.447916666664</v>
       </c>
       <c r="G61" s="2">
-        <v>44938.614583333336</v>
+        <v>44938.53125</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -2347,7 +2346,7 @@
         <v>44939.354166666664</v>
       </c>
       <c r="G63" s="2">
-        <v>44939.520833333336</v>
+        <v>44939.395833333336</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -2373,7 +2372,7 @@
         <v>44939.541666666664</v>
       </c>
       <c r="G64" s="2">
-        <v>44939.708333333336</v>
+        <v>44939.625</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2399,7 +2398,7 @@
         <v>44939.375</v>
       </c>
       <c r="G65" s="2">
-        <v>44939.541666666664</v>
+        <v>44939.4375</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2425,7 +2424,7 @@
         <v>44939.4375</v>
       </c>
       <c r="G66" s="2">
-        <v>44939.604166666664</v>
+        <v>44939.520833333336</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2477,7 +2476,7 @@
         <v>44940.364583333336</v>
       </c>
       <c r="G68" s="2">
-        <v>44940.489583333336</v>
+        <v>44940.416666666664</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -2529,7 +2528,7 @@
         <v>44940.385416666664</v>
       </c>
       <c r="G70" s="2">
-        <v>44940.552083333336</v>
+        <v>44940.440972222219</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2555,7 +2554,7 @@
         <v>44940.5</v>
       </c>
       <c r="G71" s="2">
-        <v>44940.666666666664</v>
+        <v>44940.583333333336</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -2633,7 +2632,7 @@
         <v>44941.395833333336</v>
       </c>
       <c r="G74" s="2">
-        <v>44941.5625</v>
+        <v>44941.4375</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2659,7 +2658,7 @@
         <v>44941.583333333336</v>
       </c>
       <c r="G75" s="2">
-        <v>44941.75</v>
+        <v>44941.666666666664</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -2685,7 +2684,7 @@
         <v>44941.416666666664</v>
       </c>
       <c r="G76" s="2">
-        <v>44941.625</v>
+        <v>44941.5</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -2841,7 +2840,7 @@
         <v>44943.479166666664</v>
       </c>
       <c r="G82" s="2">
-        <v>44943.645833333336</v>
+        <v>44943.5625</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2919,7 +2918,7 @@
         <v>44943.375</v>
       </c>
       <c r="G85" s="2">
-        <v>44943.541666666664</v>
+        <v>44943.416666666664</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -2971,7 +2970,7 @@
         <v>44944.604166666664</v>
       </c>
       <c r="G87" s="2">
-        <v>44944.770833333336</v>
+        <v>44944.6875</v>
       </c>
       <c r="H87">
         <v>2</v>
